--- a/2025-12-20_SG-SG_Data.xlsx
+++ b/2025-12-20_SG-SG_Data.xlsx
@@ -12,6 +12,7 @@
     <sheet name="GrossSkins" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="NetSkins" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Quota" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Handicaps" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3294,7 +3295,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3314,7 +3315,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3334,7 +3335,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3354,7 +3355,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3374,7 +3375,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3667,7 +3668,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -3692,7 +3693,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -3717,7 +3718,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -3742,7 +3743,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3867,7 +3868,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3892,7 +3893,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -3917,7 +3918,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -3942,7 +3943,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -3967,7 +3968,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -3992,7 +3993,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -4017,7 +4018,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -4042,7 +4043,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -4267,7 +4268,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>T13</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -4292,7 +4293,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>T13</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -4317,7 +4318,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>T13</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -4342,7 +4343,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>T13</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -4367,7 +4368,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>T13</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -4392,7 +4393,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>T13</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -4417,7 +4418,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>T16</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -4442,7 +4443,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>T16</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -4467,7 +4468,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>T16</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -4492,7 +4493,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>T16</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -4649,6 +4650,657 @@
         <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Handicap</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Andy Meach</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ben Magnone</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bud Scott</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chris Beck</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Christopher Royce</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Clark Koch</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Dan Denham</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Dana Beckley</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>David Pearson</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Derek Becko</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Dusty Wasmund</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Eric Weiss</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Glenn Brand</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Jeff Cloepfil</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Jeff De Laveaga</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Jim Restivo</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Joe Sepessy</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Jon Vrolyks</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Justin Deuker</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Kevin Barber</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Kiernan Mattson</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Korey Jerome</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Mark Albedyll</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Mark Lewis</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Matt Neimeier</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Mike Muller</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>7</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Neil Harris</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Patrick Schueppert</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Paul Benga</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Rich McKeon</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>11</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Rick Meewes</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Rob Oliver</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Ron Amstutz</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Ron Marino</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Scott Benton</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Shane Bolosan</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Steve McCormick</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Steve Rosenbluth</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Todd Densley</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Travis Ingram</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Win Doolittle</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>8</v>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>2025-12-20</t>
         </is>

--- a/2025-12-20_SG-SG_Data.xlsx
+++ b/2025-12-20_SG-SG_Data.xlsx
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>

--- a/2025-12-20_SG-SG_Data.xlsx
+++ b/2025-12-20_SG-SG_Data.xlsx
@@ -4682,7 +4682,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Handicap</t>
+          <t>HI</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
